--- a/output/fit_clients/fit_round_67.xlsx
+++ b/output/fit_clients/fit_round_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9870426215.998816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004753342990903778</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5123936505853581</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.932150832102837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8878425975173214</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.932150832102837</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5961438430.368481</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005014201805920422</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.436689429500464</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8849727399846735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.436689429500464</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5330522523.030972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.00306223611880207</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.272719555852031</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9618322181600063</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.272719555852031</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4453171026.500234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00463359014443812</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.583105127011785</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8262957714444218</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.583105127011785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5962139731.269624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002672653840007406</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.424662622129947</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8643947754364738</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.424662622129947</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7256332447.736535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.000952212440515882</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.578516238492172</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9084728117426197</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.578516238492172</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5032264999.785726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002984404866225191</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.414140678783301</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9589339571663699</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.414140678783301</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6573206422.84108</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00469421604149775</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.183597327434041</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9070060318430809</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.183597327434041</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4428546530.84479</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005334663349192981</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2078965489011045</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.580435783524712</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.4277375483349553</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.580435783524712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3154720568.732502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001002570855549731</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.47761822405233</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7794383579484001</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.47761822405233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9133024871.466551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001918622727551164</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3156762663476553</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.247080260419597</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7037128264929957</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.247080260419597</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5292382707.608418</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004634376486322333</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.500844562746878</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.018754879754171</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.500844562746878</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7870927719.649036</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002371496623205381</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.00739457953825</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8961335407963268</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.00739457953825</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5807918222.849197</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004913125332839681</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.41541527660986</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9929839805271334</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.41541527660986</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7421855065.254802</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004364592580368422</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.085530481013792</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9142444589108752</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.085530481013792</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6013337769.712953</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00267714598552602</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.935757701006011</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9363906451292566</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.935757701006011</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6564399574.146342</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008486989259103075</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.107000417471977</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9323150396298041</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.107000417471977</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2973248406.961414</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001693079854856242</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.700797350358841</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9054037596518453</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.700797350358841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5641452270.571227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001087829744594437</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
         <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.442742516344552</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8441460540352032</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.442742516344552</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5253571034.650746</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004137739090353848</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9197586608035671</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.775362033349708</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.160156800258882</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.775362033349708</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>3809253706.873423</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003683887280765988</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.566145863097722</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7803797694465872</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.566145863097722</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7374207688.403266</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001415197272179604</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.333440105731855</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8563962541900554</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.333440105731855</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7489134395.454843</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003802261601117955</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3652839648964809</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.123488672392832</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.7678701069131144</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.123488672392832</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4662028189.020641</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003978500638968921</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.215152539133671</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9377939328706546</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.215152539133671</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4368740353.072815</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001379494454158862</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7967328917179173</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.293990247206559</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.017740064192305</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.293990247206559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7332138951.398893</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002786092427073777</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.813543565351396</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9335777417005702</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.813543565351396</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9071762660.202591</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005791370712788041</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.922713519616752</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9060450085480912</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.922713519616752</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5218002414.724888</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001150172191021556</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.121754525373608</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9812720879154327</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.121754525373608</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6768291581.372001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003579582222069535</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.564834976176143</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8836405852139021</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.564834976176143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7640239951.025213</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002999655857393741</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3926563632752476</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.60578323543852</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.7502115629397309</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.60578323543852</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3783085289.768884</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001183693356072362</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.981775256354307</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.92111081023791</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.981775256354307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5628835534.198751</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002214091039140466</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6476359790420444</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.110609831438815</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9223225908975589</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.110609831438815</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5216856262.770303</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003558784772014848</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.936590954151025</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7483883527704746</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.936590954151025</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6484426883.651763</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002498346511797868</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.783412576929918</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9214260249736524</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.783412576929918</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5070815960.183078</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002806210929896908</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.013133772449065</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.021182992569299</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.013133772449065</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6516931068.416912</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00437173352470967</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.782882668865029</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.002823360355883</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.782882668865029</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3109392984.468541</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004460390157716094</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.6128683627863</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8963047272759181</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.6128683627863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4967745379.062512</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003248829017976428</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.090406697887338</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8548401232481714</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.090406697887338</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5772965117.640141</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.00349157933250894</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.979801213347305</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.979634674517435</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.979801213347305</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6732658466.901793</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001421272899867444</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.037515398172866</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9231666883633625</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.037515398172866</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5574565998.919629</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005197648506021765</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.592472781627635</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9677612414512599</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.592472781627635</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5440563362.354788</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004307343325595633</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.909138265009288</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9147297779168677</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.909138265009288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6165624442.007104</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002103292807144669</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.729689000749751</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9340530154960904</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.729689000749751</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4518545306.507998</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001641557171151945</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.072302256186085</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9488185055869109</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.072302256186085</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>6931732470.844323</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005498117452709807</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.921032965560237</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.835442414895169</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.921032965560237</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8201933212.23876</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002799139748934817</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8741971273173029</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.611846142169656</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.16079219698219</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.611846142169656</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5328328271.971106</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003188770501389571</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.363575510037083</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9500419651734378</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.363575510037083</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4123569408.777163</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005535851634365587</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.664608279832426</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8618428137666644</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.664608279832426</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5641298643.931614</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003284655335262069</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.458539173085496</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.034838237921386</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.458539173085496</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4952658404.720209</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003880530001441337</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.60026027537174</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9392126321578191</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.60026027537174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6725450784.394549</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001824649676173498</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.828537507275656</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8548401232481714</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.828537507275656</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5807278372.288006</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003265862932972898</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.031578432331822</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9320035076963585</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.031578432331822</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4655971773.937565</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005177647414115145</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.529553081580311</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8429509017100412</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.529553081580311</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8894576327.706295</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003518161450612651</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.600619444486653</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8959806746663406</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.600619444486653</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5378109114.259421</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002278023471188309</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.052237210567049</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.919830994290976</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.052237210567049</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5675996846.790977</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004562752012096803</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.65218044154684</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8148710519914057</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.65218044154684</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5960220898.953198</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002158707749003554</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.384381052207953</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.814157995631294</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.384381052207953</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7787743289.77177</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003126550764564805</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.751818210408674</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8885934844044512</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.751818210408674</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5805341803.136568</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003898103517879968</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.572763672112008</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.826110077840681</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.572763672112008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5499668183.198298</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005777827063103819</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.069999625059007</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9254015739665656</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.069999625059007</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4769221850.433233</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002826451998985258</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.275963797805922</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8625164492138429</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.275963797805922</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8080130793.509867</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005679819437164325</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.42456085801245</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8930404967797942</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.42456085801245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3590568538.784238</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003450548985925386</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.855367766126169</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8866119355862609</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.855367766126169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5024462586.804876</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004777351390440898</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.060122736273217</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9904867421089781</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.060122736273217</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4361501723.146124</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002576677091765258</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9624599647325557</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.052825863181235</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.254646408960955</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.052825863181235</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5490925641.305467</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004026810225874513</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.403629565969307</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8944934105401458</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.403629565969307</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7883216013.575999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002592116345428589</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5545659746415708</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.329105827643904</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7020595926816786</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.329105827643904</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5323091582.06464</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001208521655290224</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.807812004385069</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9969489687610815</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.807812004385069</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5309620841.77245</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002860572855116923</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7299451101073409</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.971507109316925</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.045911931022914</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.971507109316925</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4763683969.88202</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003439681064116564</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.107919599640196</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.808729038386223</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.107919599640196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6405192366.23808</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001853399852817689</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.606440894521918</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.033020549906915</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.606440894521918</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7289330105.329726</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001362840385092446</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.997907706099497</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.4051902077760665</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.997907706099497</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5559968286.867819</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003894711621750352</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.952682001181159</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8857834349341864</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.952682001181159</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6606708547.063714</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004521919091108663</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.692641855636059</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.853820386281639</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.692641855636059</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6948080781.735578</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002881770046942419</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.698759060301591</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9174511722866127</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.698759060301591</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7603378552.960175</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.00579454517531014</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.2874401741202912</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.194424681240021</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.6502030271858441</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.194424681240021</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5290340621.54525</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003791987365350543</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.646194378806588</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9039501909664448</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.646194378806588</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7542182602.338094</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001679436685810742</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.942661454993294</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9848336586924631</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.942661454993294</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5231380736.155664</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003223335420229134</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.829713130539123</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9554364189374815</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.829713130539123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6965837490.366177</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003358982135848382</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.431728173857253</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9779777057169886</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.431728173857253</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6259823866.774386</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004461618664345015</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9006901305809001</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.541458939016048</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.173172995459786</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.541458939016048</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7823323479.085322</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002837107916337428</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.163957020027364</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7919353889890597</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.163957020027364</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6573722684.761649</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004565503918313079</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>16</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3811634684928514</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.505744381808867</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.7286574308884406</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.505744381808867</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4115970098.51911</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00336664774789284</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.338737693243892</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8869579509300359</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.338737693243892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9211792019.037388</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001806173444677521</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.87316052619045</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9758969359252109</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.87316052619045</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3401269858.605292</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001365646444804025</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>21</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3215933677292183</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.218923193556988</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.615306083466992</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.218923193556988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9559430542.480772</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005268592745295608</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.722885182700637</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8412070858316347</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.722885182700637</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5806078953.024808</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003732458127226204</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.001435473708905</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.94588037026906</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.001435473708905</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7201604199.608526</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003701040042248177</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.825355947208417</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9437114092224907</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.825355947208417</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7256439887.378339</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004362668044950054</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.022088915074122</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8112589651231841</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.022088915074122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4801628158.03331</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003064718968405665</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.969514747246154</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.037820188058642</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.969514747246154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7301304391.750356</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001488263588331369</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.1017142104420157</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.549769412365159</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.2156214135025428</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.549769412365159</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5806007651.029629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001418931991788209</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.368300178477131</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.017732475608759</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.368300178477131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7857225336.737081</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001809430790430097</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.088820507213517</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9268037579287413</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.088820507213517</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9224808573.491285</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00338941984113698</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>18</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.448978089654825</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9075133417149964</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.448978089654825</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5862901547.841507</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005237943692856499</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8699870086970032</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.930617207278755</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.152938293586428</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.930617207278755</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8881083091.70216</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004375529227900553</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.712602455933082</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8631895589542716</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.712602455933082</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2516794348.272271</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00379031039894182</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.581120309395989</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.266529504968179</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.581120309395989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4981532194.85084</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002957385252282031</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.827717468535081</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8230867352762395</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.827717468535081</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5227783613.658134</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001289647342901749</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5570895431215214</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.894221393907722</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.878659767571209</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.894221393907722</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_67.xlsx
+++ b/output/fit_clients/fit_round_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9870426215.998816</v>
+        <v>1566063233.178409</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004753342990903778</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
+        <v>0.07132893932220688</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03472663207894529</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>783031553.762761</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2249496768.756085</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.120109342806384</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0506075055436885</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5961438430.368481</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005014201805920422</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
+      <c r="J3" t="n">
+        <v>1124748462.97363</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5330522523.030972</v>
+        <v>4705113075.679127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00306223611880207</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+        <v>0.142298088171655</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03162299490621939</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2352556601.854705</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4453171026.500234</v>
+        <v>3473965135.13557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00463359014443812</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07762421191473054</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04759841980024987</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1736982605.932706</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5962139731.269624</v>
+        <v>2340766314.055153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002672653840007406</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.09024030136981932</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03889278182237853</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1170383149.65178</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7256332447.736535</v>
+        <v>3132862471.703345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000952212440515882</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.0905523557976308</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03047330252422135</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1566431187.858591</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5032264999.785726</v>
+        <v>3475380400.479743</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002984404866225191</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.2014050328616182</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02096346973961482</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1737690306.234141</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6573206422.84108</v>
+        <v>1564667243.809958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00469421604149775</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>21</v>
+        <v>0.150086839166687</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02414353480111406</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>782333708.8365923</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4428546530.84479</v>
+        <v>4617698958.281075</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005334663349192981</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.203661920501633</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05056921867607777</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2308849548.747361</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3154720568.732502</v>
+        <v>3904752003.121709</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001002570855549731</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1587418538841018</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03703587719525681</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1952376007.513094</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9133024871.466551</v>
+        <v>2288283976.968812</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001918622727551164</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19</v>
+        <v>0.1603335911906747</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04426156500951496</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1144141941.227745</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5292382707.608418</v>
+        <v>5220724065.473377</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004634376486322333</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14</v>
+        <v>0.07498094708888801</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03028233087307482</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2610362025.560389</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7870927719.649036</v>
+        <v>2493784462.337921</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002371496623205381</v>
-      </c>
-      <c r="G14" t="b">
+        <v>0.1849374616496881</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03441636559522558</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>15</v>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1246892302.165308</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5807918222.849197</v>
+        <v>1257965520.962077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004913125332839681</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19</v>
+        <v>0.08984343505503374</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04479582360860475</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>628982791.0143975</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7421855065.254802</v>
+        <v>2320120389.597923</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004364592580368422</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21</v>
+        <v>0.09811117330142005</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04232335752516098</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1160060241.589902</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6013337769.712953</v>
+        <v>3789153215.159422</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00267714598552602</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14</v>
+        <v>0.1440495418952948</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03224160018760629</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1894576652.514483</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6564399574.146342</v>
+        <v>3058089903.564177</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008486989259103075</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>17</v>
+        <v>0.1211618079746877</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02458841528575001</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1529044977.699229</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2973248406.961414</v>
+        <v>1287457892.819981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001693079854856242</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.166308805690122</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02130953200737384</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>643729045.5426276</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5641452270.571227</v>
+        <v>2695850456.78063</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001087829744594437</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1023645621618727</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02461957796282589</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1347925180.520548</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5253571034.650746</v>
+        <v>1888257962.726961</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004137739090353848</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.06493554201614971</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03004780977910762</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>944129027.8472878</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2766669714.240339</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0901095867264264</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04586440004406541</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3809253706.873423</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.003683887280765988</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1383334932.527673</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7374207688.403266</v>
+        <v>1102937933.960356</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001415197272179604</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13</v>
+        <v>0.1479872488338506</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04986773400264317</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>551469019.7058195</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7489134395.454843</v>
+        <v>3320123800.83176</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003802261601117955</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.09055906455702124</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02944292093337205</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1660061914.021484</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4662028189.020641</v>
+        <v>965499516.0721669</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003978500638968921</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14</v>
+        <v>0.08419680187126939</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02130241976427197</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>482749829.8505946</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4368740353.072815</v>
+        <v>1231411867.071297</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001379494454158862</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08610224380296783</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02495248222593817</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>615705962.1599224</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7332138951.398893</v>
+        <v>3083989387.303191</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002786092427073777</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1006520676740249</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02151453325463103</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1541994749.212686</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>9071762660.202591</v>
+        <v>3259626334.60123</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005791370712788041</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.1335052045887974</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04367736661012595</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>16</v>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1629813200.963899</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5218002414.724888</v>
+        <v>4552595123.883514</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001150172191021556</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.09739983534665944</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04128294741513957</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2276297540.399822</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6768291581.372001</v>
+        <v>1556473832.350419</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003579582222069535</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.1294982195251629</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03220937858257431</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>778236903.018798</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7640239951.025213</v>
+        <v>1307628554.801904</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002999655857393741</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
+        <v>0.09085269426558223</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05068066499763336</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>653814203.4404328</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3783085289.768884</v>
+        <v>1429788667.167218</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001183693356072362</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1204192920356882</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03024238438455779</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>714894387.2960782</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5628835534.198751</v>
+        <v>2204132015.884668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002214091039140466</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.1679011195054308</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04984771852782374</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1102066071.236655</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5216856262.770303</v>
+        <v>1291788442.825758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003558784772014848</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>21</v>
+        <v>0.1074918694906151</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02413336432445863</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>645894211.28272</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6484426883.651763</v>
+        <v>1127342424.849846</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002498346511797868</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>17</v>
+        <v>0.08497638370871649</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03201970897176571</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>563671202.9720378</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5070815960.183078</v>
+        <v>2084513374.542441</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002806210929896908</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>19</v>
+        <v>0.153359719928792</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02151535196257517</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1042256742.413624</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6516931068.416912</v>
+        <v>1816971391.473312</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00437173352470967</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
+        <v>0.07775959934315209</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04027835874296501</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>908485697.7186531</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3109392984.468541</v>
+        <v>1548647851.618542</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004460390157716094</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07408369178933014</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0361566505706213</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>774323968.0833859</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4967745379.062512</v>
+        <v>1545710239.734994</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003248829017976428</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
+        <v>0.1641878515277452</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02208444206251979</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>772855183.2756211</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5772965117.640141</v>
+        <v>1782370871.864101</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00349157933250894</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1227823718737974</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05211935586933566</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>891185331.3333845</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6732658466.901793</v>
+        <v>1874723299.477994</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001421272899867444</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>19</v>
+        <v>0.1610142007443985</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04650139052396859</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>937361736.1020093</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5574565998.919629</v>
+        <v>3762576765.573446</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005197648506021765</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>17</v>
+        <v>0.1075162630815701</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03208282629421823</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1881288395.616104</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5440563362.354788</v>
+        <v>2629762089.427923</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004307343325595633</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>16</v>
+        <v>0.1450748142843436</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02441667380593658</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>22</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1314881080.212627</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6165624442.007104</v>
+        <v>2351413572.508705</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002103292807144669</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>18</v>
+        <v>0.09176069192090353</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03269626361994291</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1175706962.589913</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4518545306.507998</v>
+        <v>1972402648.194815</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001641557171151945</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1840627453568935</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05168803313985973</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>986201312.1063566</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>6931732470.844323</v>
+        <v>3521483710.757389</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005498117452709807</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
+        <v>0.165030989112385</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06010263582779254</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1760741797.439945</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8201933212.23876</v>
+        <v>4338488925.569858</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002799139748934817</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1417028891788282</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04489672966046027</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2169244481.032886</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5328328271.971106</v>
+        <v>3176192282.253268</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003188770501389571</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
+        <v>0.09487715705018583</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03127112958893295</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1588096223.266766</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4123569408.777163</v>
+        <v>1376915145.129976</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005535851634365587</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1580219114395817</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03934709221685562</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>688457623.6380461</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5641298643.931614</v>
+        <v>3305652294.388346</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003284655335262069</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+        <v>0.1238814790372808</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03454543864701184</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>23</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1652826185.175608</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4952658404.720209</v>
+        <v>1299675582.445349</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003880530001441337</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1531369798484764</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04135652288128958</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>649837826.4948248</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6725450784.394549</v>
+        <v>4402493916.793109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001824649676173498</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>16</v>
+        <v>0.1258596974035667</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04325828775946999</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2201246991.087257</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>471</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3375453403.992993</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1660667686055542</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03322927443542587</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
-        <v>443</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5807278372.288006</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.003265862932972898</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>12</v>
+      <c r="I53" t="n">
+        <v>19</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1687726708.373897</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4655971773.937565</v>
+        <v>4139243403.565468</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005177647414115145</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1406509791620117</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04539798484348177</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2069621776.657661</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8894576327.706295</v>
+        <v>4961724263.632111</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003518161450612651</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>21</v>
+        <v>0.2168331441215615</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0199680531171147</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2480862149.068561</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5378109114.259421</v>
+        <v>1854039230.438235</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002278023471188309</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1353613055113928</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03688528536617963</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>927019604.9499604</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5675996846.790977</v>
+        <v>4179466828.409278</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004562752012096803</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1666087826574956</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02183265976579576</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2089733517.527348</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5960220898.953198</v>
+        <v>1776197342.494879</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002158707749003554</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.2017016254031367</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0360560278096688</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>888098677.0903356</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7787743289.77177</v>
+        <v>4760146780.09972</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003126550764564805</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1252565671947571</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03328188078362816</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2380073329.204906</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5805341803.136568</v>
+        <v>2312356107.522649</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003898103517879968</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.126856973509788</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02666461708469034</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1156178051.896217</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5499668183.198298</v>
+        <v>2218007354.200441</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005777827063103819</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>15</v>
+        <v>0.1335219164579205</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02824952287190952</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>23</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1109003731.213021</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4769221850.433233</v>
+        <v>1881380455.903392</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002826451998985258</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1293815980693468</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03855708787045653</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>940690268.124512</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8080130793.509867</v>
+        <v>3439709022.743421</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005679819437164325</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>16</v>
+        <v>0.0705512670752657</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0318381917208443</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1719854598.644795</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3590568538.784238</v>
+        <v>3481193875.451328</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003450548985925386</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1863761654904592</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02282841681702147</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>21</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1740596936.996433</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5024462586.804876</v>
+        <v>5853154210.959936</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004777351390440898</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1642901592255686</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02762950696437814</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2926577013.388291</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4361501723.146124</v>
+        <v>4008476217.425702</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002576677091765258</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>13</v>
+        <v>0.1214735689291859</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04043963471381441</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2004238082.651478</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5490925641.305467</v>
+        <v>3081338898.023438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004026810225874513</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.09421200941016251</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04803049273201124</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1540669460.311963</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7883216013.575999</v>
+        <v>5956489550.662233</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002592116345428589</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>14</v>
+        <v>0.1448726937810846</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05176041057269135</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2978244889.570437</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5323091582.06464</v>
+        <v>2029676392.24104</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001208521655290224</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>15</v>
+        <v>0.1425875463122253</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05095584177410767</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1014838204.831049</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5309620841.77245</v>
+        <v>2963385895.163277</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002860572855116923</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.09649607201739732</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03468649479518213</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1481692922.094034</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>531</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5552905640.396799</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1366347306926408</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02439532625549106</v>
+      </c>
+      <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>474</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4763683969.88202</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.003439681064116564</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+      <c r="I71" t="n">
+        <v>24</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2776452967.035393</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6405192366.23808</v>
+        <v>2138845944.220921</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001853399852817689</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>14</v>
+        <v>0.08700604207041851</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04713457394780389</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1069422895.961396</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7289330105.329726</v>
+        <v>2548658152.091935</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001362840385092446</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
+        <v>0.07492764505496184</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03231684704025634</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1274329113.237014</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5559968286.867819</v>
+        <v>3555494706.508421</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003894711621750352</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1265400069965413</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02685353774821112</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1777747370.497402</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6606708547.063714</v>
+        <v>2076522238.367014</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004521919091108663</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>13</v>
+        <v>0.1216760488229035</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02315312119066952</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1038261076.066823</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6948080781.735578</v>
+        <v>5238142176.648512</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002881770046942419</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.09371396846658296</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02928350147078543</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
-        <v>13</v>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2619071124.84946</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7603378552.960175</v>
+        <v>1868526880.648868</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00579454517531014</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>21</v>
+        <v>0.1731714766447925</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02167953748431719</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>934263482.3256022</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3370283996.719776</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1217019243482159</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03799461002316943</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5290340621.54525</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.003791987365350543</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1685142009.075715</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7542182602.338094</v>
+        <v>1673594905.68822</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001679436685810742</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>14</v>
+        <v>0.1284482427205666</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02564421259716602</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>836797517.3037646</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5231380736.155664</v>
+        <v>4433910581.925168</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003223335420229134</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>22</v>
+        <v>0.08056836751773293</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02591718320446259</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2216955311.911843</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6965837490.366177</v>
+        <v>4209963993.529437</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003358982135848382</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1230181590919234</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02175448216063534</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2104981967.617382</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6259823866.774386</v>
+        <v>5385313535.179649</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004461618664345015</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1708284787187853</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02444330201404211</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2692656729.938092</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7823323479.085322</v>
+        <v>2328975846.077348</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002837107916337428</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>17</v>
+        <v>0.09994712937036998</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03554852458796823</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1164487949.151324</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6573722684.761649</v>
+        <v>1781427717.140835</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004565503918313079</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>18</v>
+        <v>0.09158180144855768</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03817896414633886</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>890713895.4759564</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4115970098.51911</v>
+        <v>2366919107.514578</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00336664774789284</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.138518176708798</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03719845683656255</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1183459543.90851</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9211792019.037388</v>
+        <v>2106745004.504522</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001806173444677521</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>18</v>
+        <v>0.1119096634029177</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02597897098695583</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1053372544.636598</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3401269858.605292</v>
+        <v>1265644899.943364</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001365646444804025</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1786665278245547</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03123068538270817</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>632822522.2866517</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9559430542.480772</v>
+        <v>2843203440.379525</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005268592745295608</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>16</v>
+        <v>0.1595858735627949</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02992889576362558</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1421601735.039524</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5806078953.024808</v>
+        <v>2709161934.782029</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003732458127226204</v>
-      </c>
-      <c r="G89" t="b">
+        <v>0.1160450113988476</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03989462098093358</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="H89" t="n">
-        <v>14</v>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1354581026.713753</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7201604199.608526</v>
+        <v>1460111248.45227</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003701040042248177</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>12</v>
+        <v>0.08935169218818284</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04417546897791804</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>730055595.5801655</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7256439887.378339</v>
+        <v>1999808790.698972</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004362668044950054</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>20</v>
+        <v>0.1501068514828304</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04241592476780306</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>999904367.5420609</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4801628158.03331</v>
+        <v>2327662291.735238</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003064718968405665</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09920232967753495</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04172410134800603</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1163831116.711536</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7301304391.750356</v>
+        <v>4667127808.772991</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001488263588331369</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.09605362862085638</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.034784294594286</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2333563861.754253</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5806007651.029629</v>
+        <v>2165696373.782253</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001418931991788209</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>21</v>
+        <v>0.1421428907519317</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04283273341515635</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1082848206.704292</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7857225336.737081</v>
+        <v>2240121599.969511</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001809430790430097</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.09557976334682455</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03869758262277434</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>16</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1120060854.871803</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9224808573.491285</v>
+        <v>2098132211.028434</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00338941984113698</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>18</v>
+        <v>0.1224400237768941</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03118843806782816</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1049066081.915772</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5862901547.841507</v>
+        <v>4629827147.224533</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005237943692856499</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1295697909549667</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02711880936992667</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>17</v>
+      <c r="I97" t="n">
+        <v>21</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2314913680.545156</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8881083091.70216</v>
+        <v>3092727392.507995</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004375529227900553</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>25</v>
+        <v>0.115899829629662</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02911732897929202</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1546363687.137715</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2516794348.272271</v>
+        <v>2287405263.400774</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00379031039894182</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1267501411199864</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03520581972325369</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1143702565.889001</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4981532194.85084</v>
+        <v>3519138774.684676</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002957385252282031</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
+        <v>0.1280326239697703</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02753110633924574</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1759569419.543608</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5227783613.658134</v>
+        <v>3547859742.896015</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001289647342901749</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>22</v>
+        <v>0.2136607885497508</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05455470206995434</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1773930032.813601</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_67.xlsx
+++ b/output/fit_clients/fit_round_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1566063233.178409</v>
+        <v>1818791421.937705</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07132893932220688</v>
+        <v>0.07399927283923313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03472663207894529</v>
+        <v>0.04523063786559666</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>783031553.762761</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2249496768.756085</v>
+        <v>1720255176.707281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.120109342806384</v>
+        <v>0.1499658230360975</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0506075055436885</v>
+        <v>0.0454807307447361</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1124748462.97363</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4705113075.679127</v>
+        <v>5086506691.183537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.142298088171655</v>
+        <v>0.1291489225986589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03162299490621939</v>
+        <v>0.03592761915874999</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2352556601.854705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3473965135.13557</v>
+        <v>2915293706.923513</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07762421191473054</v>
+        <v>0.07288193248077063</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04759841980024987</v>
+        <v>0.04031734024750534</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1736982605.932706</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2340766314.055153</v>
+        <v>1905128020.895584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09024030136981932</v>
+        <v>0.09201275441087253</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03889278182237853</v>
+        <v>0.05586143284340684</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1170383149.65178</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3132862471.703345</v>
+        <v>2026908030.775793</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0905523557976308</v>
+        <v>0.07544724594557489</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03047330252422135</v>
+        <v>0.04002584206817816</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1566431187.858591</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3475380400.479743</v>
+        <v>3565583915.593277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2014050328616182</v>
+        <v>0.1772220936835125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02096346973961482</v>
+        <v>0.02397066325750158</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1737690306.234141</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1564667243.809958</v>
+        <v>2078681049.041285</v>
       </c>
       <c r="F9" t="n">
-        <v>0.150086839166687</v>
+        <v>0.1664787094821084</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02414353480111406</v>
+        <v>0.02824818767820202</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>782333708.8365923</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4617698958.281075</v>
+        <v>5160404723.678929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.203661920501633</v>
+        <v>0.1898263250638915</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05056921867607777</v>
+        <v>0.04864266207010862</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>29</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2308849548.747361</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3904752003.121709</v>
+        <v>3245542146.587112</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1587418538841018</v>
+        <v>0.145692946708703</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03703587719525681</v>
+        <v>0.03629336670780453</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1952376007.513094</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2288283976.968812</v>
+        <v>2612759725.191928</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1603335911906747</v>
+        <v>0.1380508789196374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04426156500951496</v>
+        <v>0.0342892082622008</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1144141941.227745</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5220724065.473377</v>
+        <v>4563034989.282361</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07498094708888801</v>
+        <v>0.09469365263966224</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03028233087307482</v>
+        <v>0.02836651403578039</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2610362025.560389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2493784462.337921</v>
+        <v>3705865622.227168</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1849374616496881</v>
+        <v>0.1777245442005854</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03441636559522558</v>
+        <v>0.0339519111868789</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>21</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1246892302.165308</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1257965520.962077</v>
+        <v>1323307297.108077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08984343505503374</v>
+        <v>0.07059428172332077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04479582360860475</v>
+        <v>0.04077666745402392</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>628982791.0143975</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2320120389.597923</v>
+        <v>2022534465.692701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09811117330142005</v>
+        <v>0.0872101253406523</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04232335752516098</v>
+        <v>0.03488224793239221</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1160060241.589902</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3789153215.159422</v>
+        <v>5106286714.164684</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1440495418952948</v>
+        <v>0.1653079189779831</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03224160018760629</v>
+        <v>0.03201542212536317</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1894576652.514483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3058089903.564177</v>
+        <v>2782304554.586154</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1211618079746877</v>
+        <v>0.1632829847191194</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02458841528575001</v>
+        <v>0.02328304124057666</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1529044977.699229</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1287457892.819981</v>
+        <v>840850863.9289365</v>
       </c>
       <c r="F19" t="n">
-        <v>0.166308805690122</v>
+        <v>0.1728013566343558</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02130953200737384</v>
+        <v>0.01850387142080876</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>643729045.5426276</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2695850456.78063</v>
+        <v>2496430486.69376</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1023645621618727</v>
+        <v>0.1209158051563043</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02461957796282589</v>
+        <v>0.02060444230486728</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1347925180.520548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1888257962.726961</v>
+        <v>2129113894.795311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06493554201614971</v>
+        <v>0.09763014867626926</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03004780977910762</v>
+        <v>0.03387592432726829</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>944129027.8472878</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2766669714.240339</v>
+        <v>3333052785.986428</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0901095867264264</v>
+        <v>0.1071005590495037</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04586440004406541</v>
+        <v>0.04689869360545891</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1383334932.527673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1102937933.960356</v>
+        <v>1198249243.574652</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1479872488338506</v>
+        <v>0.1322792696748845</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04986773400264317</v>
+        <v>0.04966903276487734</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>551469019.7058195</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3320123800.83176</v>
+        <v>2549215326.721793</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09055906455702124</v>
+        <v>0.1208309324905852</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02944292093337205</v>
+        <v>0.03365782343429901</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1660061914.021484</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>965499516.0721669</v>
+        <v>1149049928.226067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08419680187126939</v>
+        <v>0.07928847447213454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02130241976427197</v>
+        <v>0.02060816162082019</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>482749829.8505946</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1231411867.071297</v>
+        <v>978086661.04309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08610224380296783</v>
+        <v>0.08309711631221413</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02495248222593817</v>
+        <v>0.02393040320323067</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>615705962.1599224</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3083989387.303191</v>
+        <v>3856396329.610919</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1006520676740249</v>
+        <v>0.1217087341828376</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02151453325463103</v>
+        <v>0.01800867234484486</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1541994749.212686</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3259626334.60123</v>
+        <v>2445705589.356723</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1335052045887974</v>
+        <v>0.113179603648351</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04367736661012595</v>
+        <v>0.04619382280219263</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1629813200.963899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4552595123.883514</v>
+        <v>5388226448.258149</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09739983534665944</v>
+        <v>0.1244339458168749</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04128294741513957</v>
+        <v>0.03275620909749577</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2276297540.399822</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1556473832.350419</v>
+        <v>1525253479.620973</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1294982195251629</v>
+        <v>0.1129684311063373</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03220937858257431</v>
+        <v>0.02494959617607892</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>778236903.018798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1307628554.801904</v>
+        <v>1047649730.325215</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09085269426558223</v>
+        <v>0.08638084569242466</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05068066499763336</v>
+        <v>0.03429157827159362</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>653814203.4404328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1429788667.167218</v>
+        <v>1323385309.893743</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1204192920356882</v>
+        <v>0.105987950205427</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03024238438455779</v>
+        <v>0.0287589623598564</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>714894387.2960782</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2204132015.884668</v>
+        <v>2484990780.608066</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1679011195054308</v>
+        <v>0.1702151788386616</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04984771852782374</v>
+        <v>0.04233066310912051</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1102066071.236655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1291788442.825758</v>
+        <v>1042037964.216847</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1074918694906151</v>
+        <v>0.08276480919843839</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02413336432445863</v>
+        <v>0.02435686192239945</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>645894211.28272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1127342424.849846</v>
+        <v>833403317.6112431</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08497638370871649</v>
+        <v>0.08634955206810023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03201970897176571</v>
+        <v>0.03034612801744651</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>563671202.9720378</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2084513374.542441</v>
+        <v>2969277661.010193</v>
       </c>
       <c r="F36" t="n">
-        <v>0.153359719928792</v>
+        <v>0.1568858989401016</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02151535196257517</v>
+        <v>0.02622033584801543</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1042256742.413624</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1816971391.473312</v>
+        <v>2466464060.155767</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07775959934315209</v>
+        <v>0.09487611528926772</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04027835874296501</v>
+        <v>0.03628491134941752</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>908485697.7186531</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1548647851.618542</v>
+        <v>1568930686.688122</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07408369178933014</v>
+        <v>0.1115879100350335</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0361566505706213</v>
+        <v>0.03018241639141298</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>774323968.0833859</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1545710239.734994</v>
+        <v>1901998761.199128</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1641878515277452</v>
+        <v>0.1362536703950905</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02208444206251979</v>
+        <v>0.03223068233743859</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>772855183.2756211</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1782370871.864101</v>
+        <v>1748939479.527408</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1227823718737974</v>
+        <v>0.1373540779611044</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05211935586933566</v>
+        <v>0.04487908774575183</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>891185331.3333845</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1874723299.477994</v>
+        <v>2748632129.473138</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1610142007443985</v>
+        <v>0.1002263473932065</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04650139052396859</v>
+        <v>0.04351376537630473</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>937361736.1020093</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3762576765.573446</v>
+        <v>4028669991.122089</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1075162630815701</v>
+        <v>0.0990918764365589</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03208282629421823</v>
+        <v>0.04303403754944211</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1881288395.616104</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2629762089.427923</v>
+        <v>2288372434.708585</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1450748142843436</v>
+        <v>0.1524858839925056</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02441667380593658</v>
+        <v>0.02314359240584796</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>22</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1314881080.212627</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2351413572.508705</v>
+        <v>1892139987.32657</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09176069192090353</v>
+        <v>0.06695466953435671</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03269626361994291</v>
+        <v>0.03152617937403955</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1175706962.589913</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1972402648.194815</v>
+        <v>2483134318.346231</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1840627453568935</v>
+        <v>0.1617689605671577</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05168803313985973</v>
+        <v>0.05122475742405579</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>986201312.1063566</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3521483710.757389</v>
+        <v>4869703852.139811</v>
       </c>
       <c r="F46" t="n">
-        <v>0.165030989112385</v>
+        <v>0.1120007974770352</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06010263582779254</v>
+        <v>0.04475559549769862</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>24</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1760741797.439945</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4338488925.569858</v>
+        <v>3983780357.328019</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1417028891788282</v>
+        <v>0.1510647908412303</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04489672966046027</v>
+        <v>0.04810226999597123</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>18</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2169244481.032886</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3176192282.253268</v>
+        <v>2982874698.123191</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09487715705018583</v>
+        <v>0.09974555366907771</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03127112958893295</v>
+        <v>0.03159116957339173</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1588096223.266766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1376915145.129976</v>
+        <v>1836761158.036734</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1580219114395817</v>
+        <v>0.1526723938699073</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03934709221685562</v>
+        <v>0.04454808462706877</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>688457623.6380461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3305652294.388346</v>
+        <v>3712437399.589113</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1238814790372808</v>
+        <v>0.1252405933428088</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03454543864701184</v>
+        <v>0.04241497532681495</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>23</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1652826185.175608</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1299675582.445349</v>
+        <v>1515103428.519162</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1531369798484764</v>
+        <v>0.1379694570030034</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04135652288128958</v>
+        <v>0.04666212863675243</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>649837826.4948248</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4402493916.793109</v>
+        <v>4093260845.905939</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1258596974035667</v>
+        <v>0.1207215359511904</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04325828775946999</v>
+        <v>0.04427337113702611</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2201246991.087257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3375453403.992993</v>
+        <v>2954388430.172763</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1660667686055542</v>
+        <v>0.1971583799676783</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03322927443542587</v>
+        <v>0.02234137870264947</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>19</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1687726708.373897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4139243403.565468</v>
+        <v>4570980471.109852</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1406509791620117</v>
+        <v>0.1543790808628598</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04539798484348177</v>
+        <v>0.04130880190268103</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2069621776.657661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4961724263.632111</v>
+        <v>4946377442.710504</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2168331441215615</v>
+        <v>0.1978543855484747</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0199680531171147</v>
+        <v>0.02883340538579196</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2480862149.068561</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1854039230.438235</v>
+        <v>1311047006.561959</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1353613055113928</v>
+        <v>0.1255066664233836</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03688528536617963</v>
+        <v>0.04050809849119847</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>927019604.9499604</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4179466828.409278</v>
+        <v>3017308100.34728</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1666087826574956</v>
+        <v>0.1697641645145816</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02183265976579576</v>
+        <v>0.01828863544423793</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2089733517.527348</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1776197342.494879</v>
+        <v>1743469932.630561</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2017016254031367</v>
+        <v>0.185460476365427</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0360560278096688</v>
+        <v>0.02629626364696679</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>888098677.0903356</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4760146780.09972</v>
+        <v>4207156575.993012</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1252565671947571</v>
+        <v>0.08977205711249044</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03328188078362816</v>
+        <v>0.03839640547189266</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2380073329.204906</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2312356107.522649</v>
+        <v>3051095151.678015</v>
       </c>
       <c r="F60" t="n">
-        <v>0.126856973509788</v>
+        <v>0.1565493325077304</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02666461708469034</v>
+        <v>0.02886193019314874</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>21</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1156178051.896217</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2218007354.200441</v>
+        <v>2554687946.61483</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1335219164579205</v>
+        <v>0.1289230524101914</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02824952287190952</v>
+        <v>0.03163540300451431</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>23</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1109003731.213021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1881380455.903392</v>
+        <v>2007813360.145398</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1293815980693468</v>
+        <v>0.1467716790199902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03855708787045653</v>
+        <v>0.04634591237873443</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>940690268.124512</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3439709022.743421</v>
+        <v>5051112117.452867</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0705512670752657</v>
+        <v>0.08065049260585297</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0318381917208443</v>
+        <v>0.04071028526579922</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1719854598.644795</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3481193875.451328</v>
+        <v>3568884998.261086</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1863761654904592</v>
+        <v>0.1908537053871869</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02282841681702147</v>
+        <v>0.02230506484037623</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>21</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1740596936.996433</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5853154210.959936</v>
+        <v>4247393879.741988</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1642901592255686</v>
+        <v>0.1151066479099868</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02762950696437814</v>
+        <v>0.02058755682816292</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2926577013.388291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4008476217.425702</v>
+        <v>3537024674.70631</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1214735689291859</v>
+        <v>0.1399771442351664</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04043963471381441</v>
+        <v>0.0436877090279905</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>20</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2004238082.651478</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3081338898.023438</v>
+        <v>2305548087.80146</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09421200941016251</v>
+        <v>0.06597808619621358</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04803049273201124</v>
+        <v>0.04041294425835158</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1540669460.311963</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5956489550.662233</v>
+        <v>5210848462.719314</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1448726937810846</v>
+        <v>0.1069177124458637</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05176041057269135</v>
+        <v>0.04363466847715192</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>21</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2978244889.570437</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2029676392.24104</v>
+        <v>1661372163.401905</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1425875463122253</v>
+        <v>0.1385100824805563</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05095584177410767</v>
+        <v>0.04130221571624374</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1014838204.831049</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2963385895.163277</v>
+        <v>2404707540.808855</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09649607201739732</v>
+        <v>0.09931291484904149</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03468649479518213</v>
+        <v>0.03486927716711893</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>19</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1481692922.094034</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5552905640.396799</v>
+        <v>3519858791.242829</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1366347306926408</v>
+        <v>0.1630721218758205</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02439532625549106</v>
+        <v>0.03347063466271066</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2776452967.035393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2138845944.220921</v>
+        <v>1794031711.755366</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08700604207041851</v>
+        <v>0.09871604895442165</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04713457394780389</v>
+        <v>0.03230507534175955</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1069422895.961396</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2548658152.091935</v>
+        <v>3331742504.599271</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07492764505496184</v>
+        <v>0.07564983243858422</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03231684704025634</v>
+        <v>0.04726149993327798</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>25</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1274329113.237014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3555494706.508421</v>
+        <v>3323385721.497035</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1265400069965413</v>
+        <v>0.1779977270167366</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02685353774821112</v>
+        <v>0.02990397054479816</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1777747370.497402</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2076522238.367014</v>
+        <v>2377290703.363387</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1216760488229035</v>
+        <v>0.1337390577976489</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02315312119066952</v>
+        <v>0.03420621816656362</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1038261076.066823</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5238142176.648512</v>
+        <v>3322370233.683424</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09371396846658296</v>
+        <v>0.1053909554639495</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02928350147078543</v>
+        <v>0.02453335916380358</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2619071124.84946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1868526880.648868</v>
+        <v>1906160554.00827</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1731714766447925</v>
+        <v>0.1469842559619533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02167953748431719</v>
+        <v>0.01953822746196468</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>934263482.3256022</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3370283996.719776</v>
+        <v>3494171286.794511</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1217019243482159</v>
+        <v>0.1166820298995044</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03799461002316943</v>
+        <v>0.04612019503681599</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>23</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1685142009.075715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1673594905.68822</v>
+        <v>1742221980.383154</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1284482427205666</v>
+        <v>0.1768661903947141</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02564421259716602</v>
+        <v>0.02677772637345176</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>836797517.3037646</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4433910581.925168</v>
+        <v>4627800789.900126</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08056836751773293</v>
+        <v>0.08335949550808928</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02591718320446259</v>
+        <v>0.03878419095923978</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>14</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2216955311.911843</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4209963993.529437</v>
+        <v>3256253779.356141</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1230181590919234</v>
+        <v>0.1215126199559647</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02175448216063534</v>
+        <v>0.03015719900600097</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2104981967.617382</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5385313535.179649</v>
+        <v>5481336949.619736</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1708284787187853</v>
+        <v>0.1975468454200006</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02444330201404211</v>
+        <v>0.0234877362657171</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2692656729.938092</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2328975846.077348</v>
+        <v>2266939338.643821</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09994712937036998</v>
+        <v>0.1305727309029952</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03554852458796823</v>
+        <v>0.04458052246166225</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1164487949.151324</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1781427717.140835</v>
+        <v>1794766160.946477</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09158180144855768</v>
+        <v>0.0969055029435838</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03817896414633886</v>
+        <v>0.04751132009245481</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>890713895.4759564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2366919107.514578</v>
+        <v>3006917714.93709</v>
       </c>
       <c r="F85" t="n">
-        <v>0.138518176708798</v>
+        <v>0.1204385170510833</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03719845683656255</v>
+        <v>0.04040648163840474</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1183459543.90851</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2106745004.504522</v>
+        <v>2669564773.056012</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1119096634029177</v>
+        <v>0.1569865089428164</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02597897098695583</v>
+        <v>0.02177572932704177</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1053372544.636598</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1265644899.943364</v>
+        <v>1132878726.876246</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1786665278245547</v>
+        <v>0.1571142946825618</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03123068538270817</v>
+        <v>0.04322252004194599</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>632822522.2866517</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2843203440.379525</v>
+        <v>3544542730.208524</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1595858735627949</v>
+        <v>0.1403383965469454</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02992889576362558</v>
+        <v>0.02753044353222185</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>27</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1421601735.039524</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2709161934.782029</v>
+        <v>2876697253.858681</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1160450113988476</v>
+        <v>0.1047077897325061</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03989462098093358</v>
+        <v>0.03904208530597631</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>22</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1354581026.713753</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1460111248.45227</v>
+        <v>1644200158.45566</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08935169218818284</v>
+        <v>0.1030968295514573</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04417546897791804</v>
+        <v>0.05264103448229982</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>730055595.5801655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1999808790.698972</v>
+        <v>1398727643.057863</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1501068514828304</v>
+        <v>0.1277626229432141</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04241592476780306</v>
+        <v>0.04584523544855131</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>999904367.5420609</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2327662291.735238</v>
+        <v>2058514784.935619</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09920232967753495</v>
+        <v>0.08902151639544917</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04172410134800603</v>
+        <v>0.03430675667068545</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1163831116.711536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4667127808.772991</v>
+        <v>4261090953.898042</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09605362862085638</v>
+        <v>0.09967331397989326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.034784294594286</v>
+        <v>0.04404474447689548</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2333563861.754253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2165696373.782253</v>
+        <v>1935404024.087546</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1421428907519317</v>
+        <v>0.1424550092298379</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04283273341515635</v>
+        <v>0.03146584956468819</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1082848206.704292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2240121599.969511</v>
+        <v>2262536342.912233</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09557976334682455</v>
+        <v>0.09669246997145485</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03869758262277434</v>
+        <v>0.05278321417252455</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1120060854.871803</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2098132211.028434</v>
+        <v>1496146148.773083</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1224400237768941</v>
+        <v>0.1283571365134343</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03118843806782816</v>
+        <v>0.0412552266186111</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1049066081.915772</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4629827147.224533</v>
+        <v>3847055539.891651</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1295697909549667</v>
+        <v>0.120126749157787</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02711880936992667</v>
+        <v>0.0206492010360214</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>21</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2314913680.545156</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3092727392.507995</v>
+        <v>3676869307.485791</v>
       </c>
       <c r="F98" t="n">
-        <v>0.115899829629662</v>
+        <v>0.08441094538092185</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02911732897929202</v>
+        <v>0.02043934176049535</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1546363687.137715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2287405263.400774</v>
+        <v>3308569422.035983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1267501411199864</v>
+        <v>0.1477461813227153</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03520581972325369</v>
+        <v>0.02494879649147127</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1143702565.889001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3519138774.684676</v>
+        <v>4518989766.81067</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1280326239697703</v>
+        <v>0.1149009435450961</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02753110633924574</v>
+        <v>0.02195501159399601</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>20</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1759569419.543608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3547859742.896015</v>
+        <v>2799960081.325247</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2136607885497508</v>
+        <v>0.1597064699409854</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05455470206995434</v>
+        <v>0.05851770152903518</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>28</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1773930032.813601</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_67.xlsx
+++ b/output/fit_clients/fit_round_67.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1818791421.937705</v>
+        <v>1783733289.233415</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07399927283923313</v>
+        <v>0.08961921663912521</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04523063786559666</v>
+        <v>0.03424270411325007</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1720255176.707281</v>
+        <v>1929328926.2065</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1499658230360975</v>
+        <v>0.1800197460103017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0454807307447361</v>
+        <v>0.03120176479056344</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5086506691.183537</v>
+        <v>3674901634.891114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1291489225986589</v>
+        <v>0.1174761176482299</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03592761915874999</v>
+        <v>0.03304449220077153</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2915293706.923513</v>
+        <v>2848235043.909942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07288193248077063</v>
+        <v>0.08534526610920845</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04031734024750534</v>
+        <v>0.04830922949970941</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1905128020.895584</v>
+        <v>2882303168.124112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09201275441087253</v>
+        <v>0.1376899581496888</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05586143284340684</v>
+        <v>0.03768373902615254</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2026908030.775793</v>
+        <v>2165441205.815392</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07544724594557489</v>
+        <v>0.06441543130032271</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04002584206817816</v>
+        <v>0.0410328419730043</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3565583915.593277</v>
+        <v>3459230924.372772</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1772220936835125</v>
+        <v>0.1770377684629093</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02397066325750158</v>
+        <v>0.02140267933398837</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2078681049.041285</v>
+        <v>1794555998.022415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1664787094821084</v>
+        <v>0.1353160795501502</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02824818767820202</v>
+        <v>0.03583364199446168</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5160404723.678929</v>
+        <v>4814186258.086144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1898263250638915</v>
+        <v>0.2059844289175973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04864266207010862</v>
+        <v>0.03805468006072265</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3245542146.587112</v>
+        <v>2787917446.21527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.145692946708703</v>
+        <v>0.1441113397971474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03629336670780453</v>
+        <v>0.03219408569224147</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2612759725.191928</v>
+        <v>2522761967.608898</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1380508789196374</v>
+        <v>0.1963890231791216</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0342892082622008</v>
+        <v>0.04881243932294253</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4563034989.282361</v>
+        <v>4318303544.804615</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09469365263966224</v>
+        <v>0.09752707957293896</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02836651403578039</v>
+        <v>0.02200714502018239</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3705865622.227168</v>
+        <v>3810806182.817339</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1777245442005854</v>
+        <v>0.150453596292687</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0339519111868789</v>
+        <v>0.0328887612806459</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1323307297.108077</v>
+        <v>1289536299.032312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07059428172332077</v>
+        <v>0.0830473018602855</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04077666745402392</v>
+        <v>0.03673846576651776</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2022534465.692701</v>
+        <v>2818196656.830612</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0872101253406523</v>
+        <v>0.08013011565498185</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03488224793239221</v>
+        <v>0.04268505046672412</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5106286714.164684</v>
+        <v>3620312956.944948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1653079189779831</v>
+        <v>0.1710270450650015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03201542212536317</v>
+        <v>0.04259878350607937</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2782304554.586154</v>
+        <v>3955460838.696599</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1632829847191194</v>
+        <v>0.1274273869680416</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02328304124057666</v>
+        <v>0.02151603119477019</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>840850863.9289365</v>
+        <v>1311587554.68242</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1728013566343558</v>
+        <v>0.1718416886522738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01850387142080876</v>
+        <v>0.02544389531864961</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2496430486.69376</v>
+        <v>2495122618.936837</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1209158051563043</v>
+        <v>0.1074880656214634</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02060444230486728</v>
+        <v>0.01987087368196108</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2129113894.795311</v>
+        <v>1741852737.97035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09763014867626926</v>
+        <v>0.06426623123992779</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03387592432726829</v>
+        <v>0.0279429849711635</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3333052785.986428</v>
+        <v>3459935351.674731</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1071005590495037</v>
+        <v>0.09968623074974109</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04689869360545891</v>
+        <v>0.04170167919517477</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1198249243.574652</v>
+        <v>1166055484.426786</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1322792696748845</v>
+        <v>0.1747330588075874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04966903276487734</v>
+        <v>0.0438450249738463</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2549215326.721793</v>
+        <v>3296112827.282496</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1208309324905852</v>
+        <v>0.147925104077119</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03365782343429901</v>
+        <v>0.02313098309088275</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1149049928.226067</v>
+        <v>1378477090.133402</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07928847447213454</v>
+        <v>0.1132967999566046</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02060816162082019</v>
+        <v>0.03005886478302328</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>978086661.04309</v>
+        <v>1173576571.932729</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08309711631221413</v>
+        <v>0.1091319384590016</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02393040320323067</v>
+        <v>0.02449088368088544</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3856396329.610919</v>
+        <v>4302857587.199296</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1217087341828376</v>
+        <v>0.1350400181767739</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01800867234484486</v>
+        <v>0.02334120282018592</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2445705589.356723</v>
+        <v>3622380973.844588</v>
       </c>
       <c r="F28" t="n">
-        <v>0.113179603648351</v>
+        <v>0.1517873818765592</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04619382280219263</v>
+        <v>0.0497152970043899</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5388226448.258149</v>
+        <v>4074801709.0847</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1244339458168749</v>
+        <v>0.1484489525402366</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03275620909749577</v>
+        <v>0.04667818234335618</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1525253479.620973</v>
+        <v>2360408834.924633</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1129684311063373</v>
+        <v>0.1273163446591475</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02494959617607892</v>
+        <v>0.02722029873398397</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1047649730.325215</v>
+        <v>919347671.4284486</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08638084569242466</v>
+        <v>0.08128920937734313</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03429157827159362</v>
+        <v>0.04895375218903181</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1323385309.893743</v>
+        <v>1458466946.659489</v>
       </c>
       <c r="F32" t="n">
-        <v>0.105987950205427</v>
+        <v>0.1069196839338332</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0287589623598564</v>
+        <v>0.03826282511707357</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2484990780.608066</v>
+        <v>3034252009.561427</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1702151788386616</v>
+        <v>0.1901085234018522</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04233066310912051</v>
+        <v>0.04485014535831044</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1042037964.216847</v>
+        <v>1153423921.295735</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08276480919843839</v>
+        <v>0.09592051261609873</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02435686192239945</v>
+        <v>0.02458829223282482</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>833403317.6112431</v>
+        <v>1353111170.119748</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08634955206810023</v>
+        <v>0.08191559924384328</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03034612801744651</v>
+        <v>0.03672357454847906</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2969277661.010193</v>
+        <v>2419803907.11267</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1568858989401016</v>
+        <v>0.13085969709293</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02622033584801543</v>
+        <v>0.0258290185096123</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2466464060.155767</v>
+        <v>2652398116.559675</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09487611528926772</v>
+        <v>0.07229100630941154</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03628491134941752</v>
+        <v>0.03442018365212581</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1568930686.688122</v>
+        <v>2151725166.376903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1115879100350335</v>
+        <v>0.08627486890497515</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03018241639141298</v>
+        <v>0.02875710184618243</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1901998761.199128</v>
+        <v>1733780777.333307</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1362536703950905</v>
+        <v>0.1393075160157292</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03223068233743859</v>
+        <v>0.02510483310550294</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1748939479.527408</v>
+        <v>1553632272.848207</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1373540779611044</v>
+        <v>0.1155390220028279</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04487908774575183</v>
+        <v>0.04695013720866969</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2748632129.473138</v>
+        <v>1925812295.970425</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1002263473932065</v>
+        <v>0.1018479357065266</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04351376537630473</v>
+        <v>0.04530483047799182</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4028669991.122089</v>
+        <v>3454028513.240054</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0990918764365589</v>
+        <v>0.1066774960307211</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04303403754944211</v>
+        <v>0.04481562878479771</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2288372434.708585</v>
+        <v>2680076909.807528</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1524858839925056</v>
+        <v>0.1928722283678114</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02314359240584796</v>
+        <v>0.02003748952344504</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1892139987.32657</v>
+        <v>1859619597.205252</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06695466953435671</v>
+        <v>0.07131754062231817</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03152617937403955</v>
+        <v>0.03341196616412186</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2483134318.346231</v>
+        <v>2246006657.356193</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1617689605671577</v>
+        <v>0.1943203660302108</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05122475742405579</v>
+        <v>0.05349132294900483</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4869703852.139811</v>
+        <v>3588147637.73862</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1120007974770352</v>
+        <v>0.1082795095182997</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04475559549769862</v>
+        <v>0.04694233957210642</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3983780357.328019</v>
+        <v>3686626743.729223</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1510647908412303</v>
+        <v>0.1508167772304162</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04810226999597123</v>
+        <v>0.04722806591179401</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2982874698.123191</v>
+        <v>3088526389.141571</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09974555366907771</v>
+        <v>0.0699182493712667</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03159116957339173</v>
+        <v>0.03053289616051049</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1836761158.036734</v>
+        <v>1655743882.770015</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1526723938699073</v>
+        <v>0.1887923416867533</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04454808462706877</v>
+        <v>0.0337288352500495</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3712437399.589113</v>
+        <v>2980075064.111282</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1252405933428088</v>
+        <v>0.1095000046464983</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04241497532681495</v>
+        <v>0.04409732259787137</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1515103428.519162</v>
+        <v>1338151668.548942</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1379694570030034</v>
+        <v>0.1397411116125588</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04666212863675243</v>
+        <v>0.04095380524863818</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4093260845.905939</v>
+        <v>4337623134.328515</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1207215359511904</v>
+        <v>0.09565293816169219</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04427337113702611</v>
+        <v>0.03895320148497203</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2954388430.172763</v>
+        <v>2347217617.550156</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1971583799676783</v>
+        <v>0.1794609314712307</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02234137870264947</v>
+        <v>0.0332022494882051</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4570980471.109852</v>
+        <v>4948787829.690682</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1543790808628598</v>
+        <v>0.1183322119356624</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04130880190268103</v>
+        <v>0.0530059112125183</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4946377442.710504</v>
+        <v>3111883347.935601</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1978543855484747</v>
+        <v>0.2066749192535437</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02883340538579196</v>
+        <v>0.02685710398228833</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1311047006.561959</v>
+        <v>1774830539.81023</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1255066664233836</v>
+        <v>0.1168189890968603</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04050809849119847</v>
+        <v>0.05331718207241836</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3017308100.34728</v>
+        <v>4176083039.911981</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1697641645145816</v>
+        <v>0.1391012109764829</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01828863544423793</v>
+        <v>0.01951068869544364</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1743469932.630561</v>
+        <v>1165137444.154527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.185460476365427</v>
+        <v>0.1665323518997366</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02629626364696679</v>
+        <v>0.0348088871676935</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4207156575.993012</v>
+        <v>4629197712.301195</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08977205711249044</v>
+        <v>0.0878192907112554</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03839640547189266</v>
+        <v>0.03276138762821955</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3051095151.678015</v>
+        <v>2298576035.116406</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1565493325077304</v>
+        <v>0.1810581465212015</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02886193019314874</v>
+        <v>0.03107460971651516</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2554687946.61483</v>
+        <v>2889512055.497048</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1289230524101914</v>
+        <v>0.1328110403413266</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03163540300451431</v>
+        <v>0.02835002616059048</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2007813360.145398</v>
+        <v>1416976014.937091</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1467716790199902</v>
+        <v>0.1369302106340983</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04634591237873443</v>
+        <v>0.04193504987848981</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5051112117.452867</v>
+        <v>5429726988.952511</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08065049260585297</v>
+        <v>0.08160600201343027</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04071028526579922</v>
+        <v>0.03699993622794981</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3568884998.261086</v>
+        <v>4336867364.737852</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1908537053871869</v>
+        <v>0.1264509472218623</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02230506484037623</v>
+        <v>0.03529999739153532</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4247393879.741988</v>
+        <v>5697917707.676849</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1151066479099868</v>
+        <v>0.1482086622821888</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02058755682816292</v>
+        <v>0.02920304771885549</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3537024674.70631</v>
+        <v>4067461089.625055</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1399771442351664</v>
+        <v>0.1443312199265515</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0436877090279905</v>
+        <v>0.04502770967820068</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2305548087.80146</v>
+        <v>2606973749.568241</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06597808619621358</v>
+        <v>0.06888290827292122</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04041294425835158</v>
+        <v>0.0368342528382468</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5210848462.719314</v>
+        <v>4500637932.480469</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1069177124458637</v>
+        <v>0.1150451705066966</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04363466847715192</v>
+        <v>0.0318899275309841</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1661372163.401905</v>
+        <v>2093823039.901629</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1385100824805563</v>
+        <v>0.1806688099698767</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04130221571624374</v>
+        <v>0.04777064778286561</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2404707540.808855</v>
+        <v>2853734001.326247</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09931291484904149</v>
+        <v>0.08430679589565493</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03486927716711893</v>
+        <v>0.0388805738260307</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3519858791.242829</v>
+        <v>5123783571.873255</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1630721218758205</v>
+        <v>0.1525512026364232</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03347063466271066</v>
+        <v>0.02619208076356934</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1794031711.755366</v>
+        <v>1681668923.794258</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09871604895442165</v>
+        <v>0.1054235910271732</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03230507534175955</v>
+        <v>0.05309544648413943</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3331742504.599271</v>
+        <v>2684080264.159341</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07564983243858422</v>
+        <v>0.09671155545674461</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04726149993327798</v>
+        <v>0.03570689355923429</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3323385721.497035</v>
+        <v>2514228182.113972</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1779977270167366</v>
+        <v>0.1431410531359542</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02990397054479816</v>
+        <v>0.02186135292396077</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2377290703.363387</v>
+        <v>1782429381.140799</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1337390577976489</v>
+        <v>0.1416832288100251</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03420621816656362</v>
+        <v>0.03143809296643236</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3322370233.683424</v>
+        <v>4326073282.03333</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1053909554639495</v>
+        <v>0.1146766000683788</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02453335916380358</v>
+        <v>0.02441311038844347</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1906160554.00827</v>
+        <v>1633685004.178658</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1469842559619533</v>
+        <v>0.1792756527182434</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01953822746196468</v>
+        <v>0.03110162040875392</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3494171286.794511</v>
+        <v>4356090606.052057</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1166820298995044</v>
+        <v>0.1081966280822639</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04612019503681599</v>
+        <v>0.05067210500503447</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1742221980.383154</v>
+        <v>1500883348.773545</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1768661903947141</v>
+        <v>0.168649832918216</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02677772637345176</v>
+        <v>0.02685498952114621</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4627800789.900126</v>
+        <v>3986789673.044764</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08335949550808928</v>
+        <v>0.1046104618376135</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03878419095923978</v>
+        <v>0.03273081643756861</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3256253779.356141</v>
+        <v>4268620269.953566</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1215126199559647</v>
+        <v>0.08878180467571599</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03015719900600097</v>
+        <v>0.03219147671250934</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5481336949.619736</v>
+        <v>4274707738.640241</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1975468454200006</v>
+        <v>0.2124099903718915</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0234877362657171</v>
+        <v>0.01996238805439847</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2266939338.643821</v>
+        <v>1502502650.034311</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1305727309029952</v>
+        <v>0.1201696437560057</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04458052246166225</v>
+        <v>0.0381986476687276</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1794766160.946477</v>
+        <v>1753960860.579909</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0969055029435838</v>
+        <v>0.09181089061703916</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04751132009245481</v>
+        <v>0.04074835207349598</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3006917714.93709</v>
+        <v>2698875031.661951</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1204385170510833</v>
+        <v>0.127566812335305</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04040648163840474</v>
+        <v>0.04509114963049583</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2669564773.056012</v>
+        <v>2696426340.434515</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1569865089428164</v>
+        <v>0.1452926322196338</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02177572932704177</v>
+        <v>0.01685609854831518</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1132878726.876246</v>
+        <v>1305613326.020246</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1571142946825618</v>
+        <v>0.1237414788194658</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04322252004194599</v>
+        <v>0.03935988983559338</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3544542730.208524</v>
+        <v>2471902397.01723</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1403383965469454</v>
+        <v>0.1541433613333914</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02753044353222185</v>
+        <v>0.03054343251770555</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2876697253.858681</v>
+        <v>2889991666.850336</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1047077897325061</v>
+        <v>0.1364059548718551</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03904208530597631</v>
+        <v>0.0253829505428841</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644200158.45566</v>
+        <v>2062611172.422419</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1030968295514573</v>
+        <v>0.1183673806453543</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05264103448229982</v>
+        <v>0.05237837686189964</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1398727643.057863</v>
+        <v>2080092219.376738</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1277626229432141</v>
+        <v>0.1599967635569349</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04584523544855131</v>
+        <v>0.04072334085416006</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2058514784.935619</v>
+        <v>1819668952.296824</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08902151639544917</v>
+        <v>0.09656763063186986</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03430675667068545</v>
+        <v>0.03862571066532091</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4261090953.898042</v>
+        <v>3162054264.149318</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09967331397989326</v>
+        <v>0.08762625746980675</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04404474447689548</v>
+        <v>0.03550982930645305</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1935404024.087546</v>
+        <v>1955177585.898965</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1424550092298379</v>
+        <v>0.1443692439576079</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03146584956468819</v>
+        <v>0.03613225657690951</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2262536342.912233</v>
+        <v>2878758762.749911</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09669246997145485</v>
+        <v>0.1351957340149471</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05278321417252455</v>
+        <v>0.03241483051455207</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1496146148.773083</v>
+        <v>2375888506.162362</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1283571365134343</v>
+        <v>0.08560377121339752</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0412552266186111</v>
+        <v>0.04643842870048395</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3847055539.891651</v>
+        <v>4670457010.717465</v>
       </c>
       <c r="F97" t="n">
-        <v>0.120126749157787</v>
+        <v>0.1271076251824564</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0206492010360214</v>
+        <v>0.01954382555177822</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3676869307.485791</v>
+        <v>3411785539.591042</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08441094538092185</v>
+        <v>0.09318279287569038</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02043934176049535</v>
+        <v>0.02184612269637794</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3308569422.035983</v>
+        <v>3311830011.84479</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1477461813227153</v>
+        <v>0.1252793382033674</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02494879649147127</v>
+        <v>0.02724590309150616</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4518989766.81067</v>
+        <v>3246257881.544465</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1149009435450961</v>
+        <v>0.1316543148794771</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02195501159399601</v>
+        <v>0.01733354407280732</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2799960081.325247</v>
+        <v>3431857999.669087</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1597064699409854</v>
+        <v>0.197323618429625</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05851770152903518</v>
+        <v>0.05030869825816493</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_67.xlsx
+++ b/output/fit_clients/fit_round_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1783733289.233415</v>
+        <v>2214502312.089887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08961921663912521</v>
+        <v>0.07167972677298129</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03424270411325007</v>
+        <v>0.03008552566651002</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1929328926.2065</v>
+        <v>1783994898.779937</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1800197460103017</v>
+        <v>0.1200618169457079</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03120176479056344</v>
+        <v>0.03719353432692161</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3674901634.891114</v>
+        <v>3305562025.178096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1174761176482299</v>
+        <v>0.140223155913743</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03304449220077153</v>
+        <v>0.03115089818919749</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>65</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2848235043.909942</v>
+        <v>3406651104.141504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08534526610920845</v>
+        <v>0.09484646471990228</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04830922949970941</v>
+        <v>0.04439730503383641</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>66</v>
+      </c>
+      <c r="K5" t="n">
+        <v>138.9848293877251</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2882303168.124112</v>
+        <v>1983797833.37954</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1376899581496888</v>
+        <v>0.1374459510956821</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03768373902615254</v>
+        <v>0.05025404863598131</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2165441205.815392</v>
+        <v>2858333435.593949</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06441543130032271</v>
+        <v>0.08500141656079173</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0410328419730043</v>
+        <v>0.04538436906841797</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3459230924.372772</v>
+        <v>3862215633.411302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1770377684629093</v>
+        <v>0.1652280056474502</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02140267933398837</v>
+        <v>0.02118391519078091</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>160.778056340352</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1794555998.022415</v>
+        <v>2143201137.881877</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1353160795501502</v>
+        <v>0.144891712604343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03583364199446168</v>
+        <v>0.03147189877573143</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4814186258.086144</v>
+        <v>4721777455.837906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2059844289175973</v>
+        <v>0.1847250666146718</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03805468006072265</v>
+        <v>0.04933607226053929</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>62</v>
+      </c>
+      <c r="J10" t="n">
+        <v>67</v>
+      </c>
+      <c r="K10" t="n">
+        <v>209.0144859641612</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2787917446.21527</v>
+        <v>3174348919.036297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1441113397971474</v>
+        <v>0.1334433306130689</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03219408569224147</v>
+        <v>0.04766706670037198</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2522761967.608898</v>
+        <v>2665479842.141985</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1963890231791216</v>
+        <v>0.1691877365927226</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04881243932294253</v>
+        <v>0.04952363585033868</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4318303544.804615</v>
+        <v>5162535732.259719</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09752707957293896</v>
+        <v>0.09877920959398223</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02200714502018239</v>
+        <v>0.02147508933673996</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>67</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3810806182.817339</v>
+        <v>2833797862.12501</v>
       </c>
       <c r="F14" t="n">
-        <v>0.150453596292687</v>
+        <v>0.1792395217383095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0328887612806459</v>
+        <v>0.03492011486996908</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1289536299.032312</v>
+        <v>1623838456.83837</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0830473018602855</v>
+        <v>0.09583687683792272</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03673846576651776</v>
+        <v>0.04948317651175013</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2818196656.830612</v>
+        <v>1979460164.116298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08013011565498185</v>
+        <v>0.1112201696337628</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04268505046672412</v>
+        <v>0.04969820612030273</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3620312956.944948</v>
+        <v>5105026962.57487</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1710270450650015</v>
+        <v>0.1500347422647456</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04259878350607937</v>
+        <v>0.03326267859473395</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>67</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3955460838.696599</v>
+        <v>3732891170.713468</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1274273869680416</v>
+        <v>0.1582014692262609</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02151603119477019</v>
+        <v>0.02411366393097833</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>67</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1311587554.68242</v>
+        <v>1170544800.964919</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1718416886522738</v>
+        <v>0.183022113446788</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02544389531864961</v>
+        <v>0.02022992143769453</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2495122618.936837</v>
+        <v>2370432913.978981</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1074880656214634</v>
+        <v>0.1095778510844739</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01987087368196108</v>
+        <v>0.02710129094270567</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1741852737.97035</v>
+        <v>2249214757.516544</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06426623123992779</v>
+        <v>0.06781007670041278</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0279429849711635</v>
+        <v>0.04143509750512962</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3459935351.674731</v>
+        <v>3696403299.72311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09968623074974109</v>
+        <v>0.09383368947936707</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04170167919517477</v>
+        <v>0.04645731889747095</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>67</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1166055484.426786</v>
+        <v>1279938561.728928</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1747330588075874</v>
+        <v>0.1348067984661992</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0438450249738463</v>
+        <v>0.0447141971361235</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3296112827.282496</v>
+        <v>4039428354.244227</v>
       </c>
       <c r="F24" t="n">
-        <v>0.147925104077119</v>
+        <v>0.09415403131059516</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02313098309088275</v>
+        <v>0.03001870260326931</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>67</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1378477090.133402</v>
+        <v>996420783.3004558</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1132967999566046</v>
+        <v>0.07442224053325118</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03005886478302328</v>
+        <v>0.02861881565290246</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1173576571.932729</v>
+        <v>1351682773.836552</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1091319384590016</v>
+        <v>0.07601433031043257</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02449088368088544</v>
+        <v>0.03374590446762327</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4302857587.199296</v>
+        <v>4559044688.016082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1350400181767739</v>
+        <v>0.1173111325790433</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02334120282018592</v>
+        <v>0.02701876926535611</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66</v>
+      </c>
+      <c r="K27" t="n">
+        <v>155.0130722787044</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3622380973.844588</v>
+        <v>3750202570.688765</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1517873818765592</v>
+        <v>0.1360707728466253</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0497152970043899</v>
+        <v>0.05022374620780598</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>17</v>
+      </c>
+      <c r="J28" t="n">
+        <v>67</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4074801709.0847</v>
+        <v>4094458482.78933</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1484489525402366</v>
+        <v>0.141702938393738</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04667818234335618</v>
+        <v>0.04574837811333382</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>61</v>
+      </c>
+      <c r="J29" t="n">
+        <v>67</v>
+      </c>
+      <c r="K29" t="n">
+        <v>215.8069985267249</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2360408834.924633</v>
+        <v>2283821393.224278</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1273163446591475</v>
+        <v>0.138068286203401</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02722029873398397</v>
+        <v>0.02829955725566015</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>919347671.4284486</v>
+        <v>1484885341.785287</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08128920937734313</v>
+        <v>0.08291662690626769</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04895375218903181</v>
+        <v>0.04813753710121506</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1458466946.659489</v>
+        <v>1147994013.787007</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1069196839338332</v>
+        <v>0.1199183909500789</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03826282511707357</v>
+        <v>0.03559573684297173</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3034252009.561427</v>
+        <v>2229604554.14134</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1901085234018522</v>
+        <v>0.1273255180434801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04485014535831044</v>
+        <v>0.0389656804308837</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1153423921.295735</v>
+        <v>1472281081.982663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09592051261609873</v>
+        <v>0.1217784753110214</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02458829223282482</v>
+        <v>0.02843138381301462</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1353111170.119748</v>
+        <v>1186053326.750172</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08191559924384328</v>
+        <v>0.1106045449847785</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03672357454847906</v>
+        <v>0.03510396213692508</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2419803907.11267</v>
+        <v>2235716286.275826</v>
       </c>
       <c r="F36" t="n">
-        <v>0.13085969709293</v>
+        <v>0.1599930776789043</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0258290185096123</v>
+        <v>0.0266060860448709</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2652398116.559675</v>
+        <v>2335171382.164568</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07229100630941154</v>
+        <v>0.08841357499496603</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03442018365212581</v>
+        <v>0.03820140125815445</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2151725166.376903</v>
+        <v>2014482228.225424</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08627486890497515</v>
+        <v>0.1009703554266374</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02875710184618243</v>
+        <v>0.03211094966118316</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1733780777.333307</v>
+        <v>1788192680.982477</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1393075160157292</v>
+        <v>0.1893806050574995</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02510483310550294</v>
+        <v>0.02325593813045798</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1553632272.848207</v>
+        <v>1299469688.277766</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1155390220028279</v>
+        <v>0.1495265130177027</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04695013720866969</v>
+        <v>0.04116227386939545</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1925812295.970425</v>
+        <v>2251036087.094822</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1018479357065266</v>
+        <v>0.1661595436020095</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04530483047799182</v>
+        <v>0.03137094648869956</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3454028513.240054</v>
+        <v>2736026306.470113</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1066774960307211</v>
+        <v>0.1219273564895902</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04481562878479771</v>
+        <v>0.04189026597747683</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>66</v>
+      </c>
+      <c r="K42" t="n">
+        <v>82.21809734983476</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2680076909.807528</v>
+        <v>2102095193.656996</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1928722283678114</v>
+        <v>0.2018514325899902</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02003748952344504</v>
+        <v>0.02461053244550158</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1859619597.205252</v>
+        <v>2323363594.347621</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07131754062231817</v>
+        <v>0.08250672997001454</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03341196616412186</v>
+        <v>0.02864214878025099</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2246006657.356193</v>
+        <v>2293090155.363028</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1943203660302108</v>
+        <v>0.1729716054976629</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05349132294900483</v>
+        <v>0.03485139531239414</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3588147637.73862</v>
+        <v>4472066848.837966</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1082795095182997</v>
+        <v>0.1528022898595366</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04694233957210642</v>
+        <v>0.04560924838117017</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>40</v>
+      </c>
+      <c r="J46" t="n">
+        <v>66</v>
+      </c>
+      <c r="K46" t="n">
+        <v>184.7669884569486</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3686626743.729223</v>
+        <v>3965439132.283161</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1508167772304162</v>
+        <v>0.1269591381221525</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04722806591179401</v>
+        <v>0.03824152282883382</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>67</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3088526389.141571</v>
+        <v>3464557976.443302</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0699182493712667</v>
+        <v>0.1029386870954756</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03053289616051049</v>
+        <v>0.03587608053730418</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>24</v>
+      </c>
+      <c r="J48" t="n">
+        <v>65</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1655743882.770015</v>
+        <v>1408998348.150933</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1887923416867533</v>
+        <v>0.1345514244226338</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0337288352500495</v>
+        <v>0.04241279815933026</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2980075064.111282</v>
+        <v>3491052459.606791</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1095000046464983</v>
+        <v>0.1335478956844685</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04409732259787137</v>
+        <v>0.05227547195493797</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>67</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1338151668.548942</v>
+        <v>1505918860.694308</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1397411116125588</v>
+        <v>0.1296468738762162</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04095380524863818</v>
+        <v>0.05201051913654064</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4337623134.328515</v>
+        <v>4999500232.240179</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09565293816169219</v>
+        <v>0.1144582922796718</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03895320148497203</v>
+        <v>0.05255131133998771</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>53</v>
+      </c>
+      <c r="J52" t="n">
+        <v>67</v>
+      </c>
+      <c r="K52" t="n">
+        <v>195.8340512287734</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2347217617.550156</v>
+        <v>3225541926.018203</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1794609314712307</v>
+        <v>0.2026601752439325</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0332022494882051</v>
+        <v>0.02541509310801917</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4948787829.690682</v>
+        <v>4780312530.378572</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1183322119356624</v>
+        <v>0.1636537310953126</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0530059112125183</v>
+        <v>0.0430544720734936</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>29</v>
+      </c>
+      <c r="J54" t="n">
+        <v>67</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3111883347.935601</v>
+        <v>4010771773.882656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2066749192535437</v>
+        <v>0.1902811619380159</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02685710398228833</v>
+        <v>0.0222396025846306</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>31</v>
+      </c>
+      <c r="J55" t="n">
+        <v>66</v>
+      </c>
+      <c r="K55" t="n">
+        <v>159.1617306758307</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1774830539.81023</v>
+        <v>1888502885.145568</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1168189890968603</v>
+        <v>0.10493487326443</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05331718207241836</v>
+        <v>0.04641661475285237</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4176083039.911981</v>
+        <v>3385877494.156787</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1391012109764829</v>
+        <v>0.1459025450987481</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01951068869544364</v>
+        <v>0.027510057811659</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>65</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1165137444.154527</v>
+        <v>1510438527.309027</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1665323518997366</v>
+        <v>0.1783386154651322</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0348088871676935</v>
+        <v>0.03820280666362274</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4629197712.301195</v>
+        <v>5402653061.311754</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0878192907112554</v>
+        <v>0.1264297856606783</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03276138762821955</v>
+        <v>0.03638318290278882</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>32</v>
+      </c>
+      <c r="J59" t="n">
+        <v>67</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2298576035.116406</v>
+        <v>3384876010.598272</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1810581465212015</v>
+        <v>0.197911517721586</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03107460971651516</v>
+        <v>0.02957029021739612</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2889512055.497048</v>
+        <v>2536749465.716261</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1328110403413266</v>
+        <v>0.1729676682935182</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02835002616059048</v>
+        <v>0.0303087463593266</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1416976014.937091</v>
+        <v>2099150873.821669</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1369302106340983</v>
+        <v>0.1796784725634125</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04193504987848981</v>
+        <v>0.04935144424043755</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5429726988.952511</v>
+        <v>5344578036.650779</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08160600201343027</v>
+        <v>0.0658111837556427</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03699993622794981</v>
+        <v>0.03196546449085478</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>33</v>
+      </c>
+      <c r="J63" t="n">
+        <v>66</v>
+      </c>
+      <c r="K63" t="n">
+        <v>172.2202901900704</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4336867364.737852</v>
+        <v>4468156764.792817</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1264509472218623</v>
+        <v>0.1813955606719817</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03529999739153532</v>
+        <v>0.02629387893152852</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>33</v>
+      </c>
+      <c r="J64" t="n">
+        <v>66</v>
+      </c>
+      <c r="K64" t="n">
+        <v>178.4405035398209</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5697917707.676849</v>
+        <v>5576973745.83277</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1482086622821888</v>
+        <v>0.1330401210324888</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02920304771885549</v>
+        <v>0.03096468672328562</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>53</v>
+      </c>
+      <c r="J65" t="n">
+        <v>66</v>
+      </c>
+      <c r="K65" t="n">
+        <v>188.6811904550686</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4067461089.625055</v>
+        <v>5253261860.099892</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1443312199265515</v>
+        <v>0.1588494660782859</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04502770967820068</v>
+        <v>0.03713980656777822</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>33</v>
+      </c>
+      <c r="J66" t="n">
+        <v>66</v>
+      </c>
+      <c r="K66" t="n">
+        <v>176.5716769314459</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2606973749.568241</v>
+        <v>2714520075.465621</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06888290827292122</v>
+        <v>0.08250774663366992</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0368342528382468</v>
+        <v>0.03247037536689774</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4500637932.480469</v>
+        <v>4176591795.425279</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150451705066966</v>
+        <v>0.1557389252316495</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0318899275309841</v>
+        <v>0.03258920856439897</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>33</v>
+      </c>
+      <c r="J68" t="n">
+        <v>67</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2093823039.901629</v>
+        <v>2133416697.437765</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1806688099698767</v>
+        <v>0.1194065834085785</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04777064778286561</v>
+        <v>0.05301131394842545</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2853734001.326247</v>
+        <v>2566777026.001987</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08430679589565493</v>
+        <v>0.08949032206457005</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0388805738260307</v>
+        <v>0.03451306190803238</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5123783571.873255</v>
+        <v>5598735964.372069</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1525512026364232</v>
+        <v>0.1294229836486017</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02619208076356934</v>
+        <v>0.02385185673156045</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>55</v>
+      </c>
+      <c r="J71" t="n">
+        <v>67</v>
+      </c>
+      <c r="K71" t="n">
+        <v>189.7123127503503</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1681668923.794258</v>
+        <v>1483472547.854939</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1054235910271732</v>
+        <v>0.06946121931341599</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05309544648413943</v>
+        <v>0.03721956723721739</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2684080264.159341</v>
+        <v>2897072239.054539</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09671155545674461</v>
+        <v>0.09115389924314378</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03570689355923429</v>
+        <v>0.04260420756515992</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2514228182.113972</v>
+        <v>3070196797.325165</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1431410531359542</v>
+        <v>0.1329981402980769</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02186135292396077</v>
+        <v>0.03219975762206879</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>66</v>
+      </c>
+      <c r="K74" t="n">
+        <v>105.7244082760249</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1782429381.140799</v>
+        <v>1805973570.673114</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1416832288100251</v>
+        <v>0.1075166523809408</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03143809296643236</v>
+        <v>0.02402063651331163</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4326073282.03333</v>
+        <v>3577901384.386914</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1146766000683788</v>
+        <v>0.1095078106370939</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02441311038844347</v>
+        <v>0.0341650769546738</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>31</v>
+      </c>
+      <c r="J76" t="n">
+        <v>66</v>
+      </c>
+      <c r="K76" t="n">
+        <v>116.36221619302</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1633685004.178658</v>
+        <v>1805153249.111191</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1792756527182434</v>
+        <v>0.1347510423462963</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03110162040875392</v>
+        <v>0.01963569765234069</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4356090606.052057</v>
+        <v>4472804398.536437</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1081966280822639</v>
+        <v>0.1314988907095784</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05067210500503447</v>
+        <v>0.04796578977600453</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>28</v>
+      </c>
+      <c r="J78" t="n">
+        <v>67</v>
+      </c>
+      <c r="K78" t="n">
+        <v>191.2076236903847</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1500883348.773545</v>
+        <v>1224474997.850152</v>
       </c>
       <c r="F79" t="n">
-        <v>0.168649832918216</v>
+        <v>0.1352250626927789</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02685498952114621</v>
+        <v>0.03383594450463868</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3986789673.044764</v>
+        <v>4942392078.42104</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1046104618376135</v>
+        <v>0.09651430293496814</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03273081643756861</v>
+        <v>0.02403934713498528</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>32</v>
+      </c>
+      <c r="J80" t="n">
+        <v>67</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4268620269.953566</v>
+        <v>3451879358.958301</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08878180467571599</v>
+        <v>0.08586442088635848</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03219147671250934</v>
+        <v>0.03015690180707094</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>30</v>
+      </c>
+      <c r="J81" t="n">
+        <v>65</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4274707738.640241</v>
+        <v>3996341534.508016</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2124099903718915</v>
+        <v>0.1643217388101039</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01996238805439847</v>
+        <v>0.01842117007136771</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>41</v>
+      </c>
+      <c r="J82" t="n">
+        <v>66</v>
+      </c>
+      <c r="K82" t="n">
+        <v>185.6702321101499</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1502502650.034311</v>
+        <v>2329763452.80876</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1201696437560057</v>
+        <v>0.1307222225345607</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0381986476687276</v>
+        <v>0.0331078029131951</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1753960860.579909</v>
+        <v>1874443697.810031</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09181089061703916</v>
+        <v>0.1176748889340711</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04074835207349598</v>
+        <v>0.03519512228392013</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2698875031.661951</v>
+        <v>2948593404.77762</v>
       </c>
       <c r="F85" t="n">
-        <v>0.127566812335305</v>
+        <v>0.1504213816375034</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04509114963049583</v>
+        <v>0.0553812316430906</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>64</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2696426340.434515</v>
+        <v>2702405648.875357</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1452926322196338</v>
+        <v>0.1052513171918191</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01685609854831518</v>
+        <v>0.02212692763775105</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1305613326.020246</v>
+        <v>987130630.5739037</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1237414788194658</v>
+        <v>0.151425572148577</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03935988983559338</v>
+        <v>0.03317123832697511</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2471902397.01723</v>
+        <v>3556736281.997676</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1541433613333914</v>
+        <v>0.1202039745512021</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03054343251770555</v>
+        <v>0.03285923178216038</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2889991666.850336</v>
+        <v>3303653608.822078</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1364059548718551</v>
+        <v>0.152556701551189</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0253829505428841</v>
+        <v>0.04073007614693908</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2062611172.422419</v>
+        <v>2138298637.843364</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1183673806453543</v>
+        <v>0.120289970237644</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05237837686189964</v>
+        <v>0.05455403963626495</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2080092219.376738</v>
+        <v>1961825057.087153</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1599967635569349</v>
+        <v>0.1425255231253088</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04072334085416006</v>
+        <v>0.04657980237434965</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1819668952.296824</v>
+        <v>2063671437.772656</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09656763063186986</v>
+        <v>0.0679365638211152</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03862571066532091</v>
+        <v>0.02931537244328302</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3162054264.149318</v>
+        <v>3170341320.719478</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08762625746980675</v>
+        <v>0.137094667084127</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03550982930645305</v>
+        <v>0.04879346206527297</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30</v>
+      </c>
+      <c r="J93" t="n">
+        <v>66</v>
+      </c>
+      <c r="K93" t="n">
+        <v>101.8681282884393</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1955177585.898965</v>
+        <v>1902671433.287396</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1443692439576079</v>
+        <v>0.1502838857408222</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03613225657690951</v>
+        <v>0.04131940381310895</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2878758762.749911</v>
+        <v>3274045291.441617</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1351957340149471</v>
+        <v>0.1240032130201499</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03241483051455207</v>
+        <v>0.05110954534561373</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2375888506.162362</v>
+        <v>1744727417.898021</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08560377121339752</v>
+        <v>0.1034041049162261</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04643842870048395</v>
+        <v>0.04096199998878056</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4670457010.717465</v>
+        <v>4155926181.273376</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1271076251824564</v>
+        <v>0.1166658138752992</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01954382555177822</v>
+        <v>0.02182530450510693</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>32</v>
+      </c>
+      <c r="J97" t="n">
+        <v>67</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3411785539.591042</v>
+        <v>3310070122.559443</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09318279287569038</v>
+        <v>0.1134450748397122</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02184612269637794</v>
+        <v>0.02691750461408982</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3311830011.84479</v>
+        <v>2852106118.139306</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1252793382033674</v>
+        <v>0.09142037530932356</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02724590309150616</v>
+        <v>0.02857713188776319</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3246257881.544465</v>
+        <v>3420275621.480723</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1316543148794771</v>
+        <v>0.1364464874351282</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01733354407280732</v>
+        <v>0.02149743907556517</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J100" t="n">
+        <v>66</v>
+      </c>
+      <c r="K100" t="n">
+        <v>121.0659554737511</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3431857999.669087</v>
+        <v>3518347840.065147</v>
       </c>
       <c r="F101" t="n">
-        <v>0.197323618429625</v>
+        <v>0.1342103756287053</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05030869825816493</v>
+        <v>0.0466333312344922</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
